--- a/biology/Botanique/Corymbia_terminalis/Corymbia_terminalis.xlsx
+++ b/biology/Botanique/Corymbia_terminalis/Corymbia_terminalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corymbia terminalis est une espèce d'arbre de la famille des Myrtaceae originaire  du centre de l'Australie, en particulier de la région autour d'Alice Springs. Son nom commun est le bloodwood.
 Arbre atteignant 18 m de haut, à écorce beige ou gris clair, à feuilles alternes, pétiolées lancéolées, concolores de 8 à 20 cm de long. Les fleurs sont blanches.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corymbia opaca
 Corymbia tumescens
